--- a/frontend/public/info_sheet.xlsx
+++ b/frontend/public/info_sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcmasteru365-my.sharepoint.com/personal/yadavi1_mcmaster_ca/Documents/Microsoft Teams Chat Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Inoday\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7A55D5D-9C5A-4ABE-B135-71D6A37CDE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49CB0B86-F264-476E-81D0-2BC114BEAB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{063678B0-A8FB-4E33-96CA-4CE59302AAE5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="210">
   <si>
     <t>Summary Measures</t>
   </si>
@@ -605,13 +605,76 @@
   </si>
   <si>
     <t>Unique ID of this apparatus</t>
+  </si>
+  <si>
+    <t>Distance Travelled</t>
+  </si>
+  <si>
+    <t>Calculates all distances travelled metrics.</t>
+  </si>
+  <si>
+    <t>Mean Return Time All Locales</t>
+  </si>
+  <si>
+    <t>KP_session_ReturnTime_mean</t>
+  </si>
+  <si>
+    <t>Calculates a weighted mean return time to all locales.</t>
+  </si>
+  <si>
+    <t>Expected Return Time Main Homebase</t>
+  </si>
+  <si>
+    <t>KPexpReturntime01</t>
+  </si>
+  <si>
+    <t>Calculates the expected return time to the main homebase.</t>
+  </si>
+  <si>
+    <t>BoutNumber_max</t>
+  </si>
+  <si>
+    <t>Bout Total</t>
+  </si>
+  <si>
+    <t>Calculates total number of bouts in a session.</t>
+  </si>
+  <si>
+    <t>Bout Total Duration</t>
+  </si>
+  <si>
+    <t>DurationOfBout_s_sum</t>
+  </si>
+  <si>
+    <t>Calculates total duration of bouts of checking in a session (in seconds).</t>
+  </si>
+  <si>
+    <t>Bout Mean Time Until Next Bout</t>
+  </si>
+  <si>
+    <t>Bout Mean Check Frequency</t>
+  </si>
+  <si>
+    <t>Bout Mean Rate Of Checks</t>
+  </si>
+  <si>
+    <t>RateOfChecksInBout_Hz</t>
+  </si>
+  <si>
+    <t>Calculates the mean rate of checking (or, the average reciprocal return time to the main homebase). Returns in seconds.</t>
+  </si>
+  <si>
+    <t>Calculates the average frequency (per-bout) of rat returning to the homebase during a bout.</t>
+  </si>
+  <si>
+    <t>Calculates the mean time to next checking bout (average duartion of inter-bout intervals). Returns it in seconds.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -678,6 +741,55 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -753,55 +865,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -830,8 +893,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BB67131D-7448-4885-B78C-0FE165F280C3}" name="Table3" displayName="Table3" ref="A1:C14" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="A1:C14" xr:uid="{BB67131D-7448-4885-B78C-0FE165F280C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BB67131D-7448-4885-B78C-0FE165F280C3}" name="Table3" displayName="Table3" ref="A1:C24" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:C24" xr:uid="{BB67131D-7448-4885-B78C-0FE165F280C3}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{EDF77719-4CCB-45C2-AB42-A3387595520E}" name="Summary Measures" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{360E6420-F405-4B03-AD2D-9B1DE70D4572}" name="Alternate Names" dataDxfId="21"/>
@@ -842,22 +905,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DDC32A99-1BFB-4610-8400-ABA11BC908BB}" name="Table1" displayName="Table1" ref="A1:D49" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DDC32A99-1BFB-4610-8400-ABA11BC908BB}" name="Table1" displayName="Table1" ref="A1:D49" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:D49" xr:uid="{DDC32A99-1BFB-4610-8400-ABA11BC908BB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D49">
-    <sortCondition sortBy="cellColor" ref="D2:D49" dxfId="10"/>
-    <sortCondition sortBy="cellColor" ref="D2:D49" dxfId="9"/>
-    <sortCondition sortBy="cellColor" ref="D2:D49" dxfId="8"/>
-    <sortCondition sortBy="cellColor" ref="D2:D49" dxfId="7"/>
-    <sortCondition sortBy="cellColor" ref="D2:D49" dxfId="6"/>
-    <sortCondition sortBy="cellColor" ref="D2:D49" dxfId="5"/>
-    <sortCondition sortBy="cellColor" ref="D2:D49" dxfId="4"/>
+    <sortCondition sortBy="cellColor" ref="D2:D49" dxfId="17"/>
+    <sortCondition sortBy="cellColor" ref="D2:D49" dxfId="16"/>
+    <sortCondition sortBy="cellColor" ref="D2:D49" dxfId="15"/>
+    <sortCondition sortBy="cellColor" ref="D2:D49" dxfId="14"/>
+    <sortCondition sortBy="cellColor" ref="D2:D49" dxfId="13"/>
+    <sortCondition sortBy="cellColor" ref="D2:D49" dxfId="12"/>
+    <sortCondition sortBy="cellColor" ref="D2:D49" dxfId="11"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C38C7414-7533-47E8-8BBF-5284A89FAF86}" name="Metadata Variables" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{91A98DF7-53F4-4655-A289-DBB6863750B6}" name="Alternate Names" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{BD2821EA-0343-43C9-85A0-FDDBBAEA9539}" name="Definitions" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{14CD3915-86FF-4165-B013-842427190F1A}" name="Entities" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C38C7414-7533-47E8-8BBF-5284A89FAF86}" name="Metadata Variables" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{91A98DF7-53F4-4655-A289-DBB6863750B6}" name="Alternate Names" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{BD2821EA-0343-43C9-85A0-FDDBBAEA9539}" name="Definitions" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{14CD3915-86FF-4165-B013-842427190F1A}" name="Entities" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1180,18 +1243,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD3DDC-D731-41A7-93CF-28FA9F33019E}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +1265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1213,7 +1276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1225,7 +1288,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="45">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1236,7 +1299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1247,7 +1310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -1258,7 +1321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="90">
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1269,7 +1332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="90">
+    <row r="8" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1280,7 +1343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1291,7 +1354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="105">
+    <row r="10" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1302,7 +1365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="60">
+    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -1313,7 +1376,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="60">
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -1324,7 +1387,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
@@ -1335,7 +1398,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="105">
+    <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -1346,10 +1409,114 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1369,7 +1536,7 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" customWidth="1"/>
@@ -1377,7 +1544,7 @@
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
@@ -1391,7 +1558,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
@@ -1405,7 +1572,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>47</v>
       </c>
@@ -1419,7 +1586,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29.25">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
@@ -1433,7 +1600,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>53</v>
       </c>
@@ -1447,7 +1614,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.5">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>56</v>
       </c>
@@ -1461,7 +1628,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>59</v>
       </c>
@@ -1475,7 +1642,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="29.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>62</v>
       </c>
@@ -1489,7 +1656,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -1503,7 +1670,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>68</v>
       </c>
@@ -1517,7 +1684,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="43.5">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>71</v>
       </c>
@@ -1531,7 +1698,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
@@ -1545,7 +1712,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
@@ -1559,7 +1726,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>80</v>
       </c>
@@ -1573,7 +1740,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>83</v>
       </c>
@@ -1587,7 +1754,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="29.25">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>86</v>
       </c>
@@ -1601,7 +1768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="29.25">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>89</v>
       </c>
@@ -1615,7 +1782,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>92</v>
       </c>
@@ -1629,7 +1796,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>96</v>
       </c>
@@ -1643,7 +1810,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>99</v>
       </c>
@@ -1657,7 +1824,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>103</v>
       </c>
@@ -1671,7 +1838,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29.25">
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>106</v>
       </c>
@@ -1685,7 +1852,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>110</v>
       </c>
@@ -1699,7 +1866,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="29.25">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>113</v>
       </c>
@@ -1713,7 +1880,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="29.25">
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>117</v>
       </c>
@@ -1727,7 +1894,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="43.5">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>120</v>
       </c>
@@ -1741,7 +1908,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="43.5">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>123</v>
       </c>
@@ -1755,7 +1922,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="43.5">
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>126</v>
       </c>
@@ -1769,7 +1936,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="29.25">
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>129</v>
       </c>
@@ -1783,7 +1950,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="29.25">
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>132</v>
       </c>
@@ -1797,7 +1964,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="29.25">
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>136</v>
       </c>
@@ -1811,7 +1978,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="43.5">
+    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>139</v>
       </c>
@@ -1825,7 +1992,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="43.5">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>142</v>
       </c>
@@ -1839,7 +2006,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>145</v>
       </c>
@@ -1853,7 +2020,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>148</v>
       </c>
@@ -1867,7 +2034,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>151</v>
       </c>
@@ -1881,7 +2048,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>154</v>
       </c>
@@ -1895,7 +2062,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>156</v>
       </c>
@@ -1909,7 +2076,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>158</v>
       </c>
@@ -1923,7 +2090,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>160</v>
       </c>
@@ -1937,7 +2104,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="29.25">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>162</v>
       </c>
@@ -1951,7 +2118,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="29.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>166</v>
       </c>
@@ -1965,7 +2132,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="43.5">
+    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>169</v>
       </c>
@@ -1979,7 +2146,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="43.5">
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>172</v>
       </c>
@@ -1993,7 +2160,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>175</v>
       </c>
@@ -2007,7 +2174,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>178</v>
       </c>
@@ -2021,7 +2188,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="43.5">
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>181</v>
       </c>
@@ -2035,7 +2202,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="43.5">
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>184</v>
       </c>
@@ -2049,7 +2216,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>187</v>
       </c>
@@ -2063,17 +2230,17 @@
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2081,26 +2248,26 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D49">
-    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="PROJECT">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="TRIAL">
+      <formula>NOT(ISERROR(SEARCH("TRIAL",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="PROJECT">
       <formula>NOT(ISERROR(SEARCH("PROJECT",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="STUDY">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="STUDY">
       <formula>NOT(ISERROR(SEARCH("STUDY",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="EXPERIMENT">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="EXPERIMENT">
       <formula>NOT(ISERROR(SEARCH("EXPERIMENT",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="SUBJECT">
+    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="SUBJECT">
       <formula>NOT(ISERROR(SEARCH("SUBJECT",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="TREATMENT">
+    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="TREATMENT">
       <formula>NOT(ISERROR(SEARCH("TREATMENT",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="APPARATUS">
+    <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="APPARATUS">
       <formula>NOT(ISERROR(SEARCH("APPARATUS",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="TRIAL">
-      <formula>NOT(ISERROR(SEARCH("TRIAL",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2120,6 +2287,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="02792e52-35a3-4800-8bf9-55b2f566aa8c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008C96CDA8AF14214DB685973406709F28" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec85c7cdd0e3e146d9de86a0e4116e24">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="02792e52-35a3-4800-8bf9-55b2f566aa8c" xmlns:ns4="04fff9c0-c8f3-44ef-b045-5649b596a85b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="808df9ee02b0018ebb3604cc98a975d4" ns3:_="" ns4:_="">
     <xsd:import namespace="02792e52-35a3-4800-8bf9-55b2f566aa8c"/>
@@ -2346,22 +2521,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="02792e52-35a3-4800-8bf9-55b2f566aa8c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F30A5BB6-1E6F-4B51-BDF3-86B72A6CE9F5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F30A5BB6-1E6F-4B51-BDF3-86B72A6CE9F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{623A4414-39E6-4D3E-9CE5-3C06A0954BC2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6D9E5BF-278B-48EE-A539-0F95144F5821}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="02792e52-35a3-4800-8bf9-55b2f566aa8c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6D9E5BF-278B-48EE-A539-0F95144F5821}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{623A4414-39E6-4D3E-9CE5-3C06A0954BC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="02792e52-35a3-4800-8bf9-55b2f566aa8c"/>
+    <ds:schemaRef ds:uri="04fff9c0-c8f3-44ef-b045-5649b596a85b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>